--- a/Budget IT.xlsx
+++ b/Budget IT.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="0" windowWidth="8490" windowHeight="7290" tabRatio="792"/>
+    <workbookView xWindow="-30" yWindow="0" windowWidth="8490" windowHeight="7290" tabRatio="792" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary-1" sheetId="5" r:id="rId1"/>
     <sheet name="Proposed expense" sheetId="4" r:id="rId2"/>
     <sheet name="Salary" sheetId="9" r:id="rId3"/>
     <sheet name="Budget" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Budget!$A$1:$N$40</definedName>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Total</t>
   </si>
@@ -292,6 +294,9 @@
   </si>
   <si>
     <t>Office 365 License</t>
+  </si>
+  <si>
+    <t>aaADad</t>
   </si>
 </sst>
 </file>
@@ -1696,6 +1701,19 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1721,19 +1739,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2096,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K14" sqref="K12:K14"/>
     </sheetView>
   </sheetViews>
@@ -2109,22 +2114,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="211"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
       <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:15">
@@ -2698,24 +2703,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="215"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="220"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="11" t="s">
@@ -2903,7 +2908,7 @@
       <c r="B6" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="221">
+      <c r="C6" s="210">
         <v>1</v>
       </c>
       <c r="D6" s="196">
@@ -2952,7 +2957,7 @@
       <c r="B7" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="221">
+      <c r="C7" s="210">
         <v>5</v>
       </c>
       <c r="D7" s="196">
@@ -2964,7 +2969,7 @@
       <c r="F7" s="196">
         <v>20000</v>
       </c>
-      <c r="G7" s="224">
+      <c r="G7" s="213">
         <v>0</v>
       </c>
       <c r="H7" s="196">
@@ -3076,7 +3081,7 @@
       <c r="B10" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="222">
+      <c r="C10" s="211">
         <v>12</v>
       </c>
       <c r="D10" s="197">
@@ -3127,7 +3132,7 @@
       <c r="B11" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="222">
+      <c r="C11" s="211">
         <v>1</v>
       </c>
       <c r="D11" s="197">
@@ -3247,7 +3252,7 @@
       <c r="B15" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="222">
+      <c r="C15" s="211">
         <v>1</v>
       </c>
       <c r="D15" s="197">
@@ -3344,7 +3349,7 @@
         <v>111332</v>
       </c>
       <c r="P16" s="191">
-        <f t="shared" ref="D16:P16" si="9">SUM(P3:P9)</f>
+        <f t="shared" ref="P16" si="9">SUM(P3:P9)</f>
         <v>1168000</v>
       </c>
     </row>
@@ -3381,7 +3386,7 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="G29" s="220"/>
+      <c r="G29" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3416,15 +3421,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="221" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="14" t="s">
         <v>25</v>
       </c>
@@ -4137,7 +4142,7 @@
       <c r="I12" s="154">
         <v>0</v>
       </c>
-      <c r="J12" s="223"/>
+      <c r="J12" s="212"/>
       <c r="K12" s="154">
         <v>0</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>17500</v>
       </c>
       <c r="E26" s="165">
-        <f t="shared" ref="E26:M26" si="3">SUM(E22:E25)</f>
+        <f t="shared" ref="E26:L26" si="3">SUM(E22:E25)</f>
         <v>17500</v>
       </c>
       <c r="F26" s="165">
@@ -4764,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="9">
-        <f t="shared" ref="B28:N28" si="4">(B19+B26)</f>
+        <f t="shared" ref="B28:M28" si="4">(B19+B26)</f>
         <v>601965.06000000006</v>
       </c>
       <c r="C28" s="9">
@@ -5288,4 +5293,34 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Budget IT.xlsx
+++ b/Budget IT.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Total</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>aaADad</t>
+  </si>
+  <si>
+    <t>zxc\xcxz\cxz\cxz\c</t>
+  </si>
+  <si>
+    <t>\xcxz\c\xzc</t>
   </si>
 </sst>
 </file>
@@ -5309,15 +5315,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
